--- a/zoom.xlsx
+++ b/zoom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="371">
   <si>
     <t>FIO</t>
   </si>
@@ -22,10 +22,1113 @@
     <t>Telefon raqam</t>
   </si>
   <si>
-    <t>adfsd asdfasd</t>
+    <t>dfgdf dfg</t>
   </si>
   <si>
     <t>+998950657313</t>
+  </si>
+  <si>
+    <t>Каримов Захриддинн</t>
+  </si>
+  <si>
+    <t>998975450186</t>
+  </si>
+  <si>
+    <t>Umidjon Ortiqov</t>
+  </si>
+  <si>
+    <t>998901323838</t>
+  </si>
+  <si>
+    <t>Abdurahmon sulaymonov</t>
+  </si>
+  <si>
+    <t>998916913177</t>
+  </si>
+  <si>
+    <t>Nurmamatova Dildora</t>
+  </si>
+  <si>
+    <t>998909470094</t>
+  </si>
+  <si>
+    <t>Shohruh Usmanov</t>
+  </si>
+  <si>
+    <t>998909507715</t>
+  </si>
+  <si>
+    <t>Karimov Sa'dulla</t>
+  </si>
+  <si>
+    <t>998999334234</t>
+  </si>
+  <si>
+    <t>Izzatbek Saydullayev</t>
+  </si>
+  <si>
+    <t>998990056205</t>
+  </si>
+  <si>
+    <t>Shahriyor Yorbekov</t>
+  </si>
+  <si>
+    <t>998943499802</t>
+  </si>
+  <si>
+    <t>Abduqodirov Ilhomjon</t>
+  </si>
+  <si>
+    <t>998916662158</t>
+  </si>
+  <si>
+    <t>Ismoilov Abdulaziz</t>
+  </si>
+  <si>
+    <t>998978387111</t>
+  </si>
+  <si>
+    <t>Jamshid Kattabekov</t>
+  </si>
+  <si>
+    <t>998930863722</t>
+  </si>
+  <si>
+    <t>Jovliyev Elbek</t>
+  </si>
+  <si>
+    <t>998908780615</t>
+  </si>
+  <si>
+    <t>Bunyodbek Raximboyev</t>
+  </si>
+  <si>
+    <t>998943155015</t>
+  </si>
+  <si>
+    <t>Bahodirov Qurbonali</t>
+  </si>
+  <si>
+    <t>998931504298</t>
+  </si>
+  <si>
+    <t>Azizbek gofurjonov</t>
+  </si>
+  <si>
+    <t>998912852082</t>
+  </si>
+  <si>
+    <t>Asilbekov Samandar</t>
+  </si>
+  <si>
+    <t>998990972510</t>
+  </si>
+  <si>
+    <t>Muxlisa Tillabekova</t>
+  </si>
+  <si>
+    <t>998996954532</t>
+  </si>
+  <si>
+    <t>Abdulloh Toirov</t>
+  </si>
+  <si>
+    <t>998882237666</t>
+  </si>
+  <si>
+    <t>Sultonbekov Abdullajon</t>
+  </si>
+  <si>
+    <t>998950377662</t>
+  </si>
+  <si>
+    <t>Treningga yozilish</t>
+  </si>
+  <si>
+    <t>998950088637</t>
+  </si>
+  <si>
+    <t>Rasulov Jamshidbek</t>
+  </si>
+  <si>
+    <t>998998292324</t>
+  </si>
+  <si>
+    <t>Jalolov Rustam Xujayorovich</t>
+  </si>
+  <si>
+    <t>998942275885</t>
+  </si>
+  <si>
+    <t>Ergashev Qushsha</t>
+  </si>
+  <si>
+    <t>998997923332</t>
+  </si>
+  <si>
+    <t>Шомуротова Хуршида Ахмаджоновна</t>
+  </si>
+  <si>
+    <t>998911256045</t>
+  </si>
+  <si>
+    <t>Odilbek Sattorov</t>
+  </si>
+  <si>
+    <t>998994970996</t>
+  </si>
+  <si>
+    <t>Abdiniyazov 
+Bayram</t>
+  </si>
+  <si>
+    <t>998938449592</t>
+  </si>
+  <si>
+    <t>Navbahor Shayzakova</t>
+  </si>
+  <si>
+    <t>998932950544</t>
+  </si>
+  <si>
+    <t>Нематов Турсунали Абдулла Угли</t>
+  </si>
+  <si>
+    <t>79966060018</t>
+  </si>
+  <si>
+    <t>Oblanazarov Shahzod</t>
+  </si>
+  <si>
+    <t>998902651000</t>
+  </si>
+  <si>
+    <t>Абдусаматова Зайнура</t>
+  </si>
+  <si>
+    <t>998932203638</t>
+  </si>
+  <si>
+    <t>Shahboz Nizomiddinov</t>
+  </si>
+  <si>
+    <t>998945591599</t>
+  </si>
+  <si>
+    <t>Крыкбаев ТАЛГАТ</t>
+  </si>
+  <si>
+    <t>998937758595</t>
+  </si>
+  <si>
+    <t>905353273563</t>
+  </si>
+  <si>
+    <t>eshonov bohodir</t>
+  </si>
+  <si>
+    <t>+998999780265</t>
+  </si>
+  <si>
+    <t>Mavlanov Bagandik</t>
+  </si>
+  <si>
+    <t>79137480898</t>
+  </si>
+  <si>
+    <t>Рахимова Мохигул</t>
+  </si>
+  <si>
+    <t>998913334736</t>
+  </si>
+  <si>
+    <t>Akramov Shoxrux</t>
+  </si>
+  <si>
+    <t>998999981666</t>
+  </si>
+  <si>
+    <t>Rajapova Nargiza</t>
+  </si>
+  <si>
+    <t>998900992223</t>
+  </si>
+  <si>
+    <t>Shamiyev Doston</t>
+  </si>
+  <si>
+    <t>998944659575</t>
+  </si>
+  <si>
+    <t>Урунова Шахноза</t>
+  </si>
+  <si>
+    <t>998906579786</t>
+  </si>
+  <si>
+    <t>Jamshid Khabibullaev</t>
+  </si>
+  <si>
+    <t>77079210000</t>
+  </si>
+  <si>
+    <t>Jumaniyazov Hamdambek</t>
+  </si>
+  <si>
+    <t>998992532332</t>
+  </si>
+  <si>
+    <t>мумин тураев</t>
+  </si>
+  <si>
+    <t>79111874694</t>
+  </si>
+  <si>
+    <t>Абдуллаев Бахтиёр</t>
+  </si>
+  <si>
+    <t>998900051000</t>
+  </si>
+  <si>
+    <t>Xursanoy Xakimova</t>
+  </si>
+  <si>
+    <t>998971890094</t>
+  </si>
+  <si>
+    <t>Odilov Donish</t>
+  </si>
+  <si>
+    <t>998908773317</t>
+  </si>
+  <si>
+    <t>Turdiyev akmal</t>
+  </si>
+  <si>
+    <t>79522151329</t>
+  </si>
+  <si>
+    <t>MAMAZULUNOV ABDULAZIZ</t>
+  </si>
+  <si>
+    <t>998931059350</t>
+  </si>
+  <si>
+    <t>Sultonov Jaxongir</t>
+  </si>
+  <si>
+    <t>998995029220</t>
+  </si>
+  <si>
+    <t>Malika Khamidova</t>
+  </si>
+  <si>
+    <t>998991387302</t>
+  </si>
+  <si>
+    <t>karimjonov Muhiddin</t>
+  </si>
+  <si>
+    <t>998938781477</t>
+  </si>
+  <si>
+    <t>Amangeldi Aqilbekov</t>
+  </si>
+  <si>
+    <t>998943612704</t>
+  </si>
+  <si>
+    <t>Ruxullox Aliyev</t>
+  </si>
+  <si>
+    <t>998903902000</t>
+  </si>
+  <si>
+    <t>Исломжон Мирзоев</t>
+  </si>
+  <si>
+    <t>992927529596</t>
+  </si>
+  <si>
+    <t>Matyaqubov raxim</t>
+  </si>
+  <si>
+    <t>79993536403</t>
+  </si>
+  <si>
+    <t>Muhammadrizo Solijonov</t>
+  </si>
+  <si>
+    <t>998906267767</t>
+  </si>
+  <si>
+    <t>Ziyodinov Hasan</t>
+  </si>
+  <si>
+    <t>998909620228</t>
+  </si>
+  <si>
+    <t>Umidjon jurabayev</t>
+  </si>
+  <si>
+    <t>998900038204</t>
+  </si>
+  <si>
+    <t>Otamurod Toshtemirov</t>
+  </si>
+  <si>
+    <t>+998910090203</t>
+  </si>
+  <si>
+    <t>Melikov Muhriddin</t>
+  </si>
+  <si>
+    <t>998906674233</t>
+  </si>
+  <si>
+    <t>Muxtorov Muhammadali</t>
+  </si>
+  <si>
+    <t>998997225211</t>
+  </si>
+  <si>
+    <t>Islom Jalolov</t>
+  </si>
+  <si>
+    <t>+998998951313</t>
+  </si>
+  <si>
+    <t>Ismoil eshboev</t>
+  </si>
+  <si>
+    <t>998930784846</t>
+  </si>
+  <si>
+    <t>Narzullo Azamkulov</t>
+  </si>
+  <si>
+    <t>79856266441</t>
+  </si>
+  <si>
+    <t>Komilov Shohjahon</t>
+  </si>
+  <si>
+    <t>998905489702</t>
+  </si>
+  <si>
+    <t>Diyarbek Nurmatov</t>
+  </si>
+  <si>
+    <t>77078140449</t>
+  </si>
+  <si>
+    <t>Rajabov Mardonbek</t>
+  </si>
+  <si>
+    <t>79523613837</t>
+  </si>
+  <si>
+    <t>Muxtarova Gulchehra</t>
+  </si>
+  <si>
+    <t>905453816756</t>
+  </si>
+  <si>
+    <t>Najmiddinov Daler</t>
+  </si>
+  <si>
+    <t>998907458485</t>
+  </si>
+  <si>
+    <t>Dilim Ashurzoda</t>
+  </si>
+  <si>
+    <t>998950994997</t>
+  </si>
+  <si>
+    <t>Mahmud marupov</t>
+  </si>
+  <si>
+    <t>998912003610</t>
+  </si>
+  <si>
+    <t>Qodirov Odiljon</t>
+  </si>
+  <si>
+    <t>998936585599</t>
+  </si>
+  <si>
+    <t>Yuldashev Ramon</t>
+  </si>
+  <si>
+    <t>998943164549</t>
+  </si>
+  <si>
+    <t>Нурмухаммадов Бобур</t>
+  </si>
+  <si>
+    <t>998336161177</t>
+  </si>
+  <si>
+    <t>Serjanov Dilshodbek</t>
+  </si>
+  <si>
+    <t>998972415115</t>
+  </si>
+  <si>
+    <t>Ирода Махсудова</t>
+  </si>
+  <si>
+    <t>998939679886</t>
+  </si>
+  <si>
+    <t>Oydinoy Samandarova</t>
+  </si>
+  <si>
+    <t>998941881151</t>
+  </si>
+  <si>
+    <t>Xabibov Abdufattox</t>
+  </si>
+  <si>
+    <t>998936612089</t>
+  </si>
+  <si>
+    <t>Qurbonova malika</t>
+  </si>
+  <si>
+    <t>998908806969</t>
+  </si>
+  <si>
+    <t>Shoxrux ochilov</t>
+  </si>
+  <si>
+    <t>998907439633</t>
+  </si>
+  <si>
+    <t>Sherobod Isroilov</t>
+  </si>
+  <si>
+    <t>905373520557</t>
+  </si>
+  <si>
+    <t>Усмонов Акмал</t>
+  </si>
+  <si>
+    <t>79832277419</t>
+  </si>
+  <si>
+    <t>Abjanova Asal</t>
+  </si>
+  <si>
+    <t>998997224695</t>
+  </si>
+  <si>
+    <t>Кадамбоев Жахонгир</t>
+  </si>
+  <si>
+    <t>998999606919</t>
+  </si>
+  <si>
+    <t>Behruz Isoqov</t>
+  </si>
+  <si>
+    <t>998904701808</t>
+  </si>
+  <si>
+    <t>Abdullayev Sunnatillo</t>
+  </si>
+  <si>
+    <t>998900670126</t>
+  </si>
+  <si>
+    <t>998977489555</t>
+  </si>
+  <si>
+    <t>Nodirjon Mirzayev</t>
+  </si>
+  <si>
+    <t>998990780613</t>
+  </si>
+  <si>
+    <t>Sirojiddin Haydarov</t>
+  </si>
+  <si>
+    <t>998903239858</t>
+  </si>
+  <si>
+    <t>Фазлиддин Эргашев</t>
+  </si>
+  <si>
+    <t>79091004281</t>
+  </si>
+  <si>
+    <t>Olimov abdurashid</t>
+  </si>
+  <si>
+    <t>998940113000</t>
+  </si>
+  <si>
+    <t>Tursunboyeva Ezoza</t>
+  </si>
+  <si>
+    <t>998943858333</t>
+  </si>
+  <si>
+    <t>Абдиева Хуршида</t>
+  </si>
+  <si>
+    <t>998974465225</t>
+  </si>
+  <si>
+    <t>Timur Abduhalilov</t>
+  </si>
+  <si>
+    <t>998993900117</t>
+  </si>
+  <si>
+    <t>Pahlavon Shokirov</t>
+  </si>
+  <si>
+    <t>998902032219</t>
+  </si>
+  <si>
+    <t>Xalilullox Shodmonov</t>
+  </si>
+  <si>
+    <t>998905454115</t>
+  </si>
+  <si>
+    <t>Suyarov Samandar</t>
+  </si>
+  <si>
+    <t>998979332305</t>
+  </si>
+  <si>
+    <t>Iskandar Yuldashev</t>
+  </si>
+  <si>
+    <t>998998779659</t>
+  </si>
+  <si>
+    <t>Nurmukhammad nodirov</t>
+  </si>
+  <si>
+    <t>998935463083</t>
+  </si>
+  <si>
+    <t>Samandar Husanov</t>
+  </si>
+  <si>
+    <t>998977666631</t>
+  </si>
+  <si>
+    <t>Saburov Shokir</t>
+  </si>
+  <si>
+    <t>998990341240</t>
+  </si>
+  <si>
+    <t>Matyoqubov Zafarbek</t>
+  </si>
+  <si>
+    <t>998994253393</t>
+  </si>
+  <si>
+    <t>Рахмонов Эгам</t>
+  </si>
+  <si>
+    <t>998933196227</t>
+  </si>
+  <si>
+    <t>Джумагалдиев Абдурахмон</t>
+  </si>
+  <si>
+    <t>998995056941</t>
+  </si>
+  <si>
+    <t>Esboģanov Sansizbay</t>
+  </si>
+  <si>
+    <t>998933631302</t>
+  </si>
+  <si>
+    <t>Majidov Quvonchbek</t>
+  </si>
+  <si>
+    <t>998917772531</t>
+  </si>
+  <si>
+    <t>Oybek Mavlonov</t>
+  </si>
+  <si>
+    <t>998900750751</t>
+  </si>
+  <si>
+    <t>Mustafoqulov Oybek</t>
+  </si>
+  <si>
+    <t>998994365668</t>
+  </si>
+  <si>
+    <t>998990160415</t>
+  </si>
+  <si>
+    <t>Sobirqulov Kamoliddin</t>
+  </si>
+  <si>
+    <t>998999573818</t>
+  </si>
+  <si>
+    <t>Narzidinov Muhriddin</t>
+  </si>
+  <si>
+    <t>998339190229</t>
+  </si>
+  <si>
+    <t>G'aniyev Sunnat</t>
+  </si>
+  <si>
+    <t>998997580130</t>
+  </si>
+  <si>
+    <t>Otabek Rozmetov</t>
+  </si>
+  <si>
+    <t>79786606779</t>
+  </si>
+  <si>
+    <t>Choriyev Avazbek</t>
+  </si>
+  <si>
+    <t>998976952526</t>
+  </si>
+  <si>
+    <t>Ogabek Raximov Kenjaboyivch</t>
+  </si>
+  <si>
+    <t>998999864396</t>
+  </si>
+  <si>
+    <t>Dostonbek G'aniyev</t>
+  </si>
+  <si>
+    <t>998998193075</t>
+  </si>
+  <si>
+    <t>Shoxjahon Yoqubjonov</t>
+  </si>
+  <si>
+    <t>998889751708</t>
+  </si>
+  <si>
+    <t>Abdukarimov Ozodbek</t>
+  </si>
+  <si>
+    <t>998950750688</t>
+  </si>
+  <si>
+    <t>Qosnazarov Baxtiyar</t>
+  </si>
+  <si>
+    <t>998936520329</t>
+  </si>
+  <si>
+    <t>Zinelov Shuxrat</t>
+  </si>
+  <si>
+    <t>12678360147</t>
+  </si>
+  <si>
+    <t>Muhammad sodiq To‘xtaboyev</t>
+  </si>
+  <si>
+    <t>998938779922</t>
+  </si>
+  <si>
+    <t>Madenov dilshodbek</t>
+  </si>
+  <si>
+    <t>998995402409</t>
+  </si>
+  <si>
+    <t>Mashrabjonov Jasurbek</t>
+  </si>
+  <si>
+    <t>998907837272</t>
+  </si>
+  <si>
+    <t>Рустамов Ғиёсжон</t>
+  </si>
+  <si>
+    <t>998990206726</t>
+  </si>
+  <si>
+    <t>Jamol Jalilov</t>
+  </si>
+  <si>
+    <t>998995907090</t>
+  </si>
+  <si>
+    <t>Savlat Mardonov</t>
+  </si>
+  <si>
+    <t>817028295935</t>
+  </si>
+  <si>
+    <t>998337335251</t>
+  </si>
+  <si>
+    <t>Shakarboyev shahriddin</t>
+  </si>
+  <si>
+    <t>998900152827</t>
+  </si>
+  <si>
+    <t>Umidjon toxtasinov</t>
+  </si>
+  <si>
+    <t>998931250626</t>
+  </si>
+  <si>
+    <t>Абдуманопов Дилшодбек</t>
+  </si>
+  <si>
+    <t>998937810652</t>
+  </si>
+  <si>
+    <t>Muzaffar Halimov</t>
+  </si>
+  <si>
+    <t>998900151288</t>
+  </si>
+  <si>
+    <t>Yoldosheva umida</t>
+  </si>
+  <si>
+    <t>998900646167</t>
+  </si>
+  <si>
+    <t>Gulomov Kamron</t>
+  </si>
+  <si>
+    <t>998998499343</t>
+  </si>
+  <si>
+    <t>Jasur Kuchkorov</t>
+  </si>
+  <si>
+    <t>998917769805</t>
+  </si>
+  <si>
+    <t>Сухроб Тайиров</t>
+  </si>
+  <si>
+    <t>79775823460</t>
+  </si>
+  <si>
+    <t>Iskandarova Rayxon</t>
+  </si>
+  <si>
+    <t>998930910648</t>
+  </si>
+  <si>
+    <t>Shohruh Shokirov</t>
+  </si>
+  <si>
+    <t>905345124045</t>
+  </si>
+  <si>
+    <t>Abdullo xolmirzayev</t>
+  </si>
+  <si>
+    <t>998930604880</t>
+  </si>
+  <si>
+    <t>Miyras Joldasbaev</t>
+  </si>
+  <si>
+    <t>998995910098</t>
+  </si>
+  <si>
+    <t>Ho'jamberdiyev Ulug'bek</t>
+  </si>
+  <si>
+    <t>998915711201</t>
+  </si>
+  <si>
+    <t>Maxmudjon Rixsiyev</t>
+  </si>
+  <si>
+    <t>998977199000</t>
+  </si>
+  <si>
+    <t>Илхом Бегимқулов</t>
+  </si>
+  <si>
+    <t>998909696624</t>
+  </si>
+  <si>
+    <t>Lazizbek saydullaev</t>
+  </si>
+  <si>
+    <t>998903980086</t>
+  </si>
+  <si>
+    <t>Jasurbek Ibrohimov</t>
+  </si>
+  <si>
+    <t>998908391296</t>
+  </si>
+  <si>
+    <t>998994814238</t>
+  </si>
+  <si>
+    <t>Rasulov  Maruf narpaydan ustoz zurmisiz</t>
+  </si>
+  <si>
+    <t>998932361130</t>
+  </si>
+  <si>
+    <t>Toirov Kamoliddin</t>
+  </si>
+  <si>
+    <t>998944640124</t>
+  </si>
+  <si>
+    <t>998904701809</t>
+  </si>
+  <si>
+    <t>Рустамов искандар</t>
+  </si>
+  <si>
+    <t>998915432111</t>
+  </si>
+  <si>
+    <t>Isaqjonov Mirsaid</t>
+  </si>
+  <si>
+    <t>998905364508</t>
+  </si>
+  <si>
+    <t>Yusuopov Jahongir</t>
+  </si>
+  <si>
+    <t>998931017216</t>
+  </si>
+  <si>
+    <t>Kamolxonov Musoxon</t>
+  </si>
+  <si>
+    <t>998935171749</t>
+  </si>
+  <si>
+    <t>Murodov zarif</t>
+  </si>
+  <si>
+    <t>998932333372</t>
+  </si>
+  <si>
+    <t>Saidakbar Saydullayev</t>
+  </si>
+  <si>
+    <t>998885452105</t>
+  </si>
+  <si>
+    <t>Yusupov Lochinbek</t>
+  </si>
+  <si>
+    <t>998991094777</t>
+  </si>
+  <si>
+    <t>Nafasova Mashhura</t>
+  </si>
+  <si>
+    <t>998990925566</t>
+  </si>
+  <si>
+    <t>Utkurov Isroil</t>
+  </si>
+  <si>
+    <t>998994075343</t>
+  </si>
+  <si>
+    <t>Abdug'afforov Ruslan</t>
+  </si>
+  <si>
+    <t>998973262507</t>
+  </si>
+  <si>
+    <t>Allambaev   Bahrom</t>
+  </si>
+  <si>
+    <t>+998904200119</t>
+  </si>
+  <si>
+    <t>Ozodbek Berdaliyev</t>
+  </si>
+  <si>
+    <t>998931075120</t>
+  </si>
+  <si>
+    <t>Rano Hudaykulova</t>
+  </si>
+  <si>
+    <t>905050322977</t>
+  </si>
+  <si>
+    <t>Asadbek Poyonov</t>
+  </si>
+  <si>
+    <t>998976741404</t>
+  </si>
+  <si>
+    <t>Abdurahmonov Shahriyor</t>
+  </si>
+  <si>
+    <t>998333783830</t>
+  </si>
+  <si>
+    <t>Dilshod Gulomjonov</t>
+  </si>
+  <si>
+    <t>998945394809</t>
+  </si>
+  <si>
+    <t>Otoboyev  Muhiddin</t>
+  </si>
+  <si>
+    <t>998914268036</t>
+  </si>
+  <si>
+    <t>Muhammadyunus
+Muhammadjonov</t>
+  </si>
+  <si>
+    <t>998939058877</t>
+  </si>
+  <si>
+    <t>Bpboqulov nodir</t>
+  </si>
+  <si>
+    <t>998916988484</t>
+  </si>
+  <si>
+    <t>Safarov TEMURMALIK</t>
+  </si>
+  <si>
+    <t>992922003473</t>
+  </si>
+  <si>
+    <t>Yo'ldoshxonov To'raxon</t>
+  </si>
+  <si>
+    <t>998994702214</t>
+  </si>
+  <si>
+    <t>Roʻza Begimkulova</t>
+  </si>
+  <si>
+    <t>998994787511</t>
+  </si>
+  <si>
+    <t>Abdurashidov Órozali</t>
+  </si>
+  <si>
+    <t>998990591425</t>
+  </si>
+  <si>
+    <t>Rasul Utabov</t>
+  </si>
+  <si>
+    <t>998992454477</t>
+  </si>
+  <si>
+    <t>Sardorbek Toshimov</t>
+  </si>
+  <si>
+    <t>998886851221</t>
+  </si>
+  <si>
+    <t>Obidxon Karimov</t>
+  </si>
+  <si>
+    <t>998990208111</t>
+  </si>
+  <si>
+    <t>Rahmonov Omadbek</t>
+  </si>
+  <si>
+    <t>998946637372</t>
+  </si>
+  <si>
+    <t>Musoxon Muhibillayev</t>
+  </si>
+  <si>
+    <t>998333160061</t>
+  </si>
+  <si>
+    <t>Ochilov xudayberdi</t>
+  </si>
+  <si>
+    <t>998951005053</t>
+  </si>
+  <si>
+    <t>Баходир Қодиров</t>
+  </si>
+  <si>
+    <t>998934260200</t>
+  </si>
+  <si>
+    <t>Kurbanazarov Nuratdin</t>
+  </si>
+  <si>
+    <t>998907349445</t>
+  </si>
+  <si>
+    <t>Ollazarov Murodjon</t>
+  </si>
+  <si>
+    <t>998904300609</t>
+  </si>
+  <si>
+    <t>Muhammadkamol Yarashov</t>
+  </si>
+  <si>
+    <t>79777116626</t>
+  </si>
+  <si>
+    <t>MASHRABOV SHERZODBEK</t>
+  </si>
+  <si>
+    <t>79333249073</t>
+  </si>
+  <si>
+    <t>Shaxrizod Umirov</t>
+  </si>
+  <si>
+    <t>998936309003</t>
+  </si>
+  <si>
+    <t>Miraliev Mixtorjon</t>
+  </si>
+  <si>
+    <t>998999004076</t>
+  </si>
+  <si>
+    <t>998919412707</t>
+  </si>
+  <si>
+    <t>Hayotxoja Ergashev</t>
+  </si>
+  <si>
+    <t>998999995460</t>
+  </si>
+  <si>
+    <t>Aliyev Siroj Yodgor o'g'li</t>
+  </si>
+  <si>
+    <t>998979066699</t>
   </si>
 </sst>
 </file>
@@ -357,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,6 +1482,1502 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>42</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>294</v>
+      </c>
+      <c r="B151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>296</v>
+      </c>
+      <c r="B152" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>308</v>
+      </c>
+      <c r="B158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>310</v>
+      </c>
+      <c r="B159" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>312</v>
+      </c>
+      <c r="B160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>314</v>
+      </c>
+      <c r="B161" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>330</v>
+      </c>
+      <c r="B169" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>336</v>
+      </c>
+      <c r="B172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>42</v>
+      </c>
+      <c r="B187" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zoom.xlsx
+++ b/zoom.xlsx
@@ -22,7 +22,7 @@
     <t>Telefon raqam</t>
   </si>
   <si>
-    <t>adfsd asdfasd</t>
+    <t>dfg f</t>
   </si>
   <si>
     <t>+998950657313</t>

--- a/zoom.xlsx
+++ b/zoom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="381">
   <si>
     <t>FIO</t>
   </si>
@@ -22,10 +22,1143 @@
     <t>Telefon raqam</t>
   </si>
   <si>
-    <t>dfg f</t>
+    <t>Каримов Захриддинн</t>
+  </si>
+  <si>
+    <t>998975450186</t>
+  </si>
+  <si>
+    <t>Umidjon Ortiqov</t>
+  </si>
+  <si>
+    <t>998901323838</t>
+  </si>
+  <si>
+    <t>Abdurahmon sulaymonov</t>
+  </si>
+  <si>
+    <t>998916913177</t>
+  </si>
+  <si>
+    <t>Nurmamatova Dildora</t>
+  </si>
+  <si>
+    <t>998909470094</t>
+  </si>
+  <si>
+    <t>Shohruh Usmanov</t>
+  </si>
+  <si>
+    <t>998909507715</t>
+  </si>
+  <si>
+    <t>Karimov Sa'dulla</t>
+  </si>
+  <si>
+    <t>998999334234</t>
+  </si>
+  <si>
+    <t>Izzatbek Saydullayev</t>
+  </si>
+  <si>
+    <t>998990056205</t>
+  </si>
+  <si>
+    <t>Shahriyor Yorbekov</t>
+  </si>
+  <si>
+    <t>998943499802</t>
+  </si>
+  <si>
+    <t>Abduqodirov Ilhomjon</t>
+  </si>
+  <si>
+    <t>998916662158</t>
+  </si>
+  <si>
+    <t>Ismoilov Abdulaziz</t>
+  </si>
+  <si>
+    <t>998978387111</t>
+  </si>
+  <si>
+    <t>Jamshid Kattabekov</t>
+  </si>
+  <si>
+    <t>998930863722</t>
+  </si>
+  <si>
+    <t>Jovliyev Elbek</t>
+  </si>
+  <si>
+    <t>998908780615</t>
+  </si>
+  <si>
+    <t>Bunyodbek Raximboyev</t>
+  </si>
+  <si>
+    <t>998943155015</t>
+  </si>
+  <si>
+    <t>Bahodirov Qurbonali</t>
+  </si>
+  <si>
+    <t>998931504298</t>
+  </si>
+  <si>
+    <t>Azizbek gofurjonov</t>
+  </si>
+  <si>
+    <t>998912852082</t>
+  </si>
+  <si>
+    <t>Asilbekov Samandar</t>
+  </si>
+  <si>
+    <t>998990972510</t>
+  </si>
+  <si>
+    <t>Muxlisa Tillabekova</t>
+  </si>
+  <si>
+    <t>998996954532</t>
+  </si>
+  <si>
+    <t>Abdulloh Toirov</t>
+  </si>
+  <si>
+    <t>998882237666</t>
+  </si>
+  <si>
+    <t>Sultonbekov Abdullajon</t>
+  </si>
+  <si>
+    <t>998950377662</t>
+  </si>
+  <si>
+    <t>Treningga yozilish</t>
+  </si>
+  <si>
+    <t>998950088637</t>
+  </si>
+  <si>
+    <t>Rasulov Jamshidbek</t>
+  </si>
+  <si>
+    <t>998998292324</t>
+  </si>
+  <si>
+    <t>Jalolov Rustam Xujayorovich</t>
+  </si>
+  <si>
+    <t>998942275885</t>
+  </si>
+  <si>
+    <t>Ergashev Qushsha</t>
+  </si>
+  <si>
+    <t>998997923332</t>
+  </si>
+  <si>
+    <t>Шомуротова Хуршида Ахмаджоновна</t>
+  </si>
+  <si>
+    <t>998911256045</t>
+  </si>
+  <si>
+    <t>Odilbek Sattorov</t>
+  </si>
+  <si>
+    <t>998994970996</t>
+  </si>
+  <si>
+    <t>Abdiniyazov 
+Bayram</t>
+  </si>
+  <si>
+    <t>998938449592</t>
+  </si>
+  <si>
+    <t>Navbahor Shayzakova</t>
+  </si>
+  <si>
+    <t>998932950544</t>
+  </si>
+  <si>
+    <t>Нематов Турсунали Абдулла Угли</t>
+  </si>
+  <si>
+    <t>79966060018</t>
+  </si>
+  <si>
+    <t>Oblanazarov Shahzod</t>
+  </si>
+  <si>
+    <t>998902651000</t>
+  </si>
+  <si>
+    <t>Абдусаматова Зайнура</t>
+  </si>
+  <si>
+    <t>998932203638</t>
+  </si>
+  <si>
+    <t>Shahboz Nizomiddinov</t>
+  </si>
+  <si>
+    <t>998945591599</t>
+  </si>
+  <si>
+    <t>Крыкбаев ТАЛГАТ</t>
+  </si>
+  <si>
+    <t>998937758595</t>
+  </si>
+  <si>
+    <t>905353273563</t>
+  </si>
+  <si>
+    <t>eshonov bohodir</t>
+  </si>
+  <si>
+    <t>+998999780265</t>
+  </si>
+  <si>
+    <t>Mavlanov Bagandik</t>
+  </si>
+  <si>
+    <t>79137480898</t>
+  </si>
+  <si>
+    <t>Рахимова Мохигул</t>
+  </si>
+  <si>
+    <t>998913334736</t>
+  </si>
+  <si>
+    <t>Akramov Shoxrux</t>
+  </si>
+  <si>
+    <t>998999981666</t>
+  </si>
+  <si>
+    <t>Rajapova Nargiza</t>
+  </si>
+  <si>
+    <t>998900992223</t>
+  </si>
+  <si>
+    <t>Shamiyev Doston</t>
+  </si>
+  <si>
+    <t>998944659575</t>
+  </si>
+  <si>
+    <t>Урунова Шахноза</t>
+  </si>
+  <si>
+    <t>998906579786</t>
+  </si>
+  <si>
+    <t>Jamshid Khabibullaev</t>
+  </si>
+  <si>
+    <t>77079210000</t>
+  </si>
+  <si>
+    <t>Jumaniyazov Hamdambek</t>
+  </si>
+  <si>
+    <t>998992532332</t>
+  </si>
+  <si>
+    <t>мумин тураев</t>
+  </si>
+  <si>
+    <t>79111874694</t>
+  </si>
+  <si>
+    <t>Абдуллаев Бахтиёр</t>
+  </si>
+  <si>
+    <t>998900051000</t>
+  </si>
+  <si>
+    <t>Xursanoy Xakimova</t>
+  </si>
+  <si>
+    <t>998971890094</t>
+  </si>
+  <si>
+    <t>Odilov Donish</t>
+  </si>
+  <si>
+    <t>998908773317</t>
+  </si>
+  <si>
+    <t>Turdiyev akmal</t>
+  </si>
+  <si>
+    <t>79522151329</t>
+  </si>
+  <si>
+    <t>MAMAZULUNOV ABDULAZIZ</t>
+  </si>
+  <si>
+    <t>998931059350</t>
+  </si>
+  <si>
+    <t>Sultonov Jaxongir</t>
+  </si>
+  <si>
+    <t>998995029220</t>
+  </si>
+  <si>
+    <t>Malika Khamidova</t>
+  </si>
+  <si>
+    <t>998991387302</t>
+  </si>
+  <si>
+    <t>karimjonov Muhiddin</t>
+  </si>
+  <si>
+    <t>998938781477</t>
+  </si>
+  <si>
+    <t>Amangeldi Aqilbekov</t>
+  </si>
+  <si>
+    <t>998943612704</t>
+  </si>
+  <si>
+    <t>Ruxullox Aliyev</t>
+  </si>
+  <si>
+    <t>998903902000</t>
+  </si>
+  <si>
+    <t>Исломжон Мирзоев</t>
+  </si>
+  <si>
+    <t>992927529596</t>
+  </si>
+  <si>
+    <t>Matyaqubov raxim</t>
+  </si>
+  <si>
+    <t>79993536403</t>
+  </si>
+  <si>
+    <t>Muhammadrizo Solijonov</t>
+  </si>
+  <si>
+    <t>998906267767</t>
+  </si>
+  <si>
+    <t>Ziyodinov Hasan</t>
+  </si>
+  <si>
+    <t>998909620228</t>
+  </si>
+  <si>
+    <t>Umidjon jurabayev</t>
+  </si>
+  <si>
+    <t>998900038204</t>
+  </si>
+  <si>
+    <t>Otamurod Toshtemirov</t>
+  </si>
+  <si>
+    <t>+998910090203</t>
+  </si>
+  <si>
+    <t>Melikov Muhriddin</t>
+  </si>
+  <si>
+    <t>998906674233</t>
+  </si>
+  <si>
+    <t>Muxtorov Muhammadali</t>
+  </si>
+  <si>
+    <t>998997225211</t>
+  </si>
+  <si>
+    <t>Islom Jalolov</t>
+  </si>
+  <si>
+    <t>+998998951313</t>
+  </si>
+  <si>
+    <t>Ismoil eshboev</t>
+  </si>
+  <si>
+    <t>998930784846</t>
+  </si>
+  <si>
+    <t>Narzullo Azamkulov</t>
+  </si>
+  <si>
+    <t>79856266441</t>
+  </si>
+  <si>
+    <t>Komilov Shohjahon</t>
+  </si>
+  <si>
+    <t>998905489702</t>
+  </si>
+  <si>
+    <t>Diyarbek Nurmatov</t>
+  </si>
+  <si>
+    <t>77078140449</t>
+  </si>
+  <si>
+    <t>Rajabov Mardonbek</t>
+  </si>
+  <si>
+    <t>79523613837</t>
+  </si>
+  <si>
+    <t>Muxtarova Gulchehra</t>
+  </si>
+  <si>
+    <t>905453816756</t>
+  </si>
+  <si>
+    <t>Najmiddinov Daler</t>
+  </si>
+  <si>
+    <t>998907458485</t>
+  </si>
+  <si>
+    <t>Dilim Ashurzoda</t>
+  </si>
+  <si>
+    <t>998950994997</t>
+  </si>
+  <si>
+    <t>Mahmud marupov</t>
+  </si>
+  <si>
+    <t>998912003610</t>
+  </si>
+  <si>
+    <t>Qodirov Odiljon</t>
+  </si>
+  <si>
+    <t>998936585599</t>
+  </si>
+  <si>
+    <t>Yuldashev Ramon</t>
+  </si>
+  <si>
+    <t>998943164549</t>
+  </si>
+  <si>
+    <t>Нурмухаммадов Бобур</t>
+  </si>
+  <si>
+    <t>998336161177</t>
+  </si>
+  <si>
+    <t>Serjanov Dilshodbek</t>
+  </si>
+  <si>
+    <t>998972415115</t>
+  </si>
+  <si>
+    <t>Ирода Махсудова</t>
+  </si>
+  <si>
+    <t>998939679886</t>
+  </si>
+  <si>
+    <t>Oydinoy Samandarova</t>
+  </si>
+  <si>
+    <t>998941881151</t>
+  </si>
+  <si>
+    <t>Xabibov Abdufattox</t>
+  </si>
+  <si>
+    <t>998936612089</t>
+  </si>
+  <si>
+    <t>Qurbonova malika</t>
+  </si>
+  <si>
+    <t>998908806969</t>
+  </si>
+  <si>
+    <t>Shoxrux ochilov</t>
+  </si>
+  <si>
+    <t>998907439633</t>
+  </si>
+  <si>
+    <t>Sherobod Isroilov</t>
+  </si>
+  <si>
+    <t>905373520557</t>
+  </si>
+  <si>
+    <t>Усмонов Акмал</t>
+  </si>
+  <si>
+    <t>79832277419</t>
+  </si>
+  <si>
+    <t>Abjanova Asal</t>
+  </si>
+  <si>
+    <t>998997224695</t>
+  </si>
+  <si>
+    <t>Кадамбоев Жахонгир</t>
+  </si>
+  <si>
+    <t>998999606919</t>
+  </si>
+  <si>
+    <t>Behruz Isoqov</t>
+  </si>
+  <si>
+    <t>998904701808</t>
+  </si>
+  <si>
+    <t>Abdullayev Sunnatillo</t>
+  </si>
+  <si>
+    <t>998900670126</t>
+  </si>
+  <si>
+    <t>998977489555</t>
+  </si>
+  <si>
+    <t>Nodirjon Mirzayev</t>
+  </si>
+  <si>
+    <t>998990780613</t>
+  </si>
+  <si>
+    <t>Sirojiddin Haydarov</t>
+  </si>
+  <si>
+    <t>998903239858</t>
+  </si>
+  <si>
+    <t>Фазлиддин Эргашев</t>
+  </si>
+  <si>
+    <t>79091004281</t>
+  </si>
+  <si>
+    <t>Olimov abdurashid</t>
+  </si>
+  <si>
+    <t>998940113000</t>
+  </si>
+  <si>
+    <t>Tursunboyeva Ezoza</t>
+  </si>
+  <si>
+    <t>998943858333</t>
+  </si>
+  <si>
+    <t>Абдиева Хуршида</t>
+  </si>
+  <si>
+    <t>998974465225</t>
+  </si>
+  <si>
+    <t>Timur Abduhalilov</t>
+  </si>
+  <si>
+    <t>998993900117</t>
+  </si>
+  <si>
+    <t>Pahlavon Shokirov</t>
+  </si>
+  <si>
+    <t>998902032219</t>
+  </si>
+  <si>
+    <t>Xalilullox Shodmonov</t>
+  </si>
+  <si>
+    <t>998905454115</t>
+  </si>
+  <si>
+    <t>Suyarov Samandar</t>
+  </si>
+  <si>
+    <t>998979332305</t>
+  </si>
+  <si>
+    <t>Iskandar Yuldashev</t>
+  </si>
+  <si>
+    <t>998998779659</t>
+  </si>
+  <si>
+    <t>Nurmukhammad nodirov</t>
+  </si>
+  <si>
+    <t>998935463083</t>
+  </si>
+  <si>
+    <t>Samandar Husanov</t>
+  </si>
+  <si>
+    <t>998977666631</t>
+  </si>
+  <si>
+    <t>Saburov Shokir</t>
+  </si>
+  <si>
+    <t>998990341240</t>
+  </si>
+  <si>
+    <t>Matyoqubov Zafarbek</t>
+  </si>
+  <si>
+    <t>998994253393</t>
+  </si>
+  <si>
+    <t>Рахмонов Эгам</t>
+  </si>
+  <si>
+    <t>998933196227</t>
+  </si>
+  <si>
+    <t>Джумагалдиев Абдурахмон</t>
+  </si>
+  <si>
+    <t>998995056941</t>
+  </si>
+  <si>
+    <t>Esboģanov Sansizbay</t>
+  </si>
+  <si>
+    <t>998933631302</t>
+  </si>
+  <si>
+    <t>Majidov Quvonchbek</t>
+  </si>
+  <si>
+    <t>998917772531</t>
+  </si>
+  <si>
+    <t>Oybek Mavlonov</t>
+  </si>
+  <si>
+    <t>998900750751</t>
+  </si>
+  <si>
+    <t>Mustafoqulov Oybek</t>
+  </si>
+  <si>
+    <t>998994365668</t>
+  </si>
+  <si>
+    <t>998990160415</t>
+  </si>
+  <si>
+    <t>Sobirqulov Kamoliddin</t>
+  </si>
+  <si>
+    <t>998999573818</t>
+  </si>
+  <si>
+    <t>Narzidinov Muhriddin</t>
+  </si>
+  <si>
+    <t>998339190229</t>
+  </si>
+  <si>
+    <t>G'aniyev Sunnat</t>
+  </si>
+  <si>
+    <t>998997580130</t>
+  </si>
+  <si>
+    <t>Otabek Rozmetov</t>
+  </si>
+  <si>
+    <t>79786606779</t>
+  </si>
+  <si>
+    <t>Choriyev Avazbek</t>
+  </si>
+  <si>
+    <t>998976952526</t>
+  </si>
+  <si>
+    <t>Ogabek Raximov Kenjaboyivch</t>
+  </si>
+  <si>
+    <t>998999864396</t>
+  </si>
+  <si>
+    <t>Dostonbek G'aniyev</t>
+  </si>
+  <si>
+    <t>998998193075</t>
+  </si>
+  <si>
+    <t>Shoxjahon Yoqubjonov</t>
+  </si>
+  <si>
+    <t>998889751708</t>
+  </si>
+  <si>
+    <t>Abdukarimov Ozodbek</t>
+  </si>
+  <si>
+    <t>998950750688</t>
+  </si>
+  <si>
+    <t>Qosnazarov Baxtiyar</t>
+  </si>
+  <si>
+    <t>998936520329</t>
+  </si>
+  <si>
+    <t>Zinelov Shuxrat</t>
+  </si>
+  <si>
+    <t>12678360147</t>
+  </si>
+  <si>
+    <t>Muhammad sodiq To‘xtaboyev</t>
+  </si>
+  <si>
+    <t>998938779922</t>
+  </si>
+  <si>
+    <t>Madenov dilshodbek</t>
+  </si>
+  <si>
+    <t>998995402409</t>
+  </si>
+  <si>
+    <t>Mashrabjonov Jasurbek</t>
+  </si>
+  <si>
+    <t>998907837272</t>
+  </si>
+  <si>
+    <t>Рустамов Ғиёсжон</t>
+  </si>
+  <si>
+    <t>998990206726</t>
+  </si>
+  <si>
+    <t>Jamol Jalilov</t>
+  </si>
+  <si>
+    <t>998995907090</t>
+  </si>
+  <si>
+    <t>Savlat Mardonov</t>
+  </si>
+  <si>
+    <t>817028295935</t>
+  </si>
+  <si>
+    <t>998337335251</t>
+  </si>
+  <si>
+    <t>Shakarboyev shahriddin</t>
+  </si>
+  <si>
+    <t>998900152827</t>
+  </si>
+  <si>
+    <t>Umidjon toxtasinov</t>
+  </si>
+  <si>
+    <t>998931250626</t>
+  </si>
+  <si>
+    <t>Абдуманопов Дилшодбек</t>
+  </si>
+  <si>
+    <t>998937810652</t>
+  </si>
+  <si>
+    <t>Muzaffar Halimov</t>
+  </si>
+  <si>
+    <t>998900151288</t>
+  </si>
+  <si>
+    <t>Yoldosheva umida</t>
+  </si>
+  <si>
+    <t>998900646167</t>
+  </si>
+  <si>
+    <t>Gulomov Kamron</t>
+  </si>
+  <si>
+    <t>998998499343</t>
+  </si>
+  <si>
+    <t>Jasur Kuchkorov</t>
+  </si>
+  <si>
+    <t>998917769805</t>
+  </si>
+  <si>
+    <t>Сухроб Тайиров</t>
+  </si>
+  <si>
+    <t>79775823460</t>
+  </si>
+  <si>
+    <t>Iskandarova Rayxon</t>
+  </si>
+  <si>
+    <t>998930910648</t>
+  </si>
+  <si>
+    <t>Shohruh Shokirov</t>
+  </si>
+  <si>
+    <t>905345124045</t>
+  </si>
+  <si>
+    <t>Abdullo xolmirzayev</t>
+  </si>
+  <si>
+    <t>998930604880</t>
+  </si>
+  <si>
+    <t>Miyras Joldasbaev</t>
+  </si>
+  <si>
+    <t>998995910098</t>
+  </si>
+  <si>
+    <t>Ho'jamberdiyev Ulug'bek</t>
+  </si>
+  <si>
+    <t>998915711201</t>
+  </si>
+  <si>
+    <t>Maxmudjon Rixsiyev</t>
+  </si>
+  <si>
+    <t>998977199000</t>
+  </si>
+  <si>
+    <t>Илхом Бегимқулов</t>
+  </si>
+  <si>
+    <t>998909696624</t>
+  </si>
+  <si>
+    <t>Lazizbek saydullaev</t>
+  </si>
+  <si>
+    <t>998903980086</t>
+  </si>
+  <si>
+    <t>Jasurbek Ibrohimov</t>
+  </si>
+  <si>
+    <t>998908391296</t>
+  </si>
+  <si>
+    <t>998994814238</t>
+  </si>
+  <si>
+    <t>Rasulov  Maruf narpaydan ustoz zurmisiz</t>
+  </si>
+  <si>
+    <t>998932361130</t>
+  </si>
+  <si>
+    <t>Toirov Kamoliddin</t>
+  </si>
+  <si>
+    <t>998944640124</t>
+  </si>
+  <si>
+    <t>998904701809</t>
+  </si>
+  <si>
+    <t>Рустамов искандар</t>
+  </si>
+  <si>
+    <t>998915432111</t>
+  </si>
+  <si>
+    <t>Isaqjonov Mirsaid</t>
+  </si>
+  <si>
+    <t>998905364508</t>
+  </si>
+  <si>
+    <t>Yusuopov Jahongir</t>
+  </si>
+  <si>
+    <t>998931017216</t>
+  </si>
+  <si>
+    <t>Kamolxonov Musoxon</t>
+  </si>
+  <si>
+    <t>998935171749</t>
+  </si>
+  <si>
+    <t>Murodov zarif</t>
+  </si>
+  <si>
+    <t>998932333372</t>
+  </si>
+  <si>
+    <t>Saidakbar Saydullayev</t>
+  </si>
+  <si>
+    <t>998885452105</t>
+  </si>
+  <si>
+    <t>Yusupov Lochinbek</t>
+  </si>
+  <si>
+    <t>998991094777</t>
+  </si>
+  <si>
+    <t>Nafasova Mashhura</t>
+  </si>
+  <si>
+    <t>998990925566</t>
+  </si>
+  <si>
+    <t>Utkurov Isroil</t>
+  </si>
+  <si>
+    <t>998994075343</t>
+  </si>
+  <si>
+    <t>Abdug'afforov Ruslan</t>
+  </si>
+  <si>
+    <t>998973262507</t>
+  </si>
+  <si>
+    <t>Allambaev   Bahrom</t>
+  </si>
+  <si>
+    <t>+998904200119</t>
+  </si>
+  <si>
+    <t>Ozodbek Berdaliyev</t>
+  </si>
+  <si>
+    <t>998931075120</t>
+  </si>
+  <si>
+    <t>Rano Hudaykulova</t>
+  </si>
+  <si>
+    <t>905050322977</t>
+  </si>
+  <si>
+    <t>Asadbek Poyonov</t>
+  </si>
+  <si>
+    <t>998976741404</t>
+  </si>
+  <si>
+    <t>Abdurahmonov Shahriyor</t>
+  </si>
+  <si>
+    <t>998333783830</t>
+  </si>
+  <si>
+    <t>Dilshod Gulomjonov</t>
+  </si>
+  <si>
+    <t>998945394809</t>
+  </si>
+  <si>
+    <t>Otoboyev  Muhiddin</t>
+  </si>
+  <si>
+    <t>998914268036</t>
+  </si>
+  <si>
+    <t>Muhammadyunus
+Muhammadjonov</t>
+  </si>
+  <si>
+    <t>998939058877</t>
+  </si>
+  <si>
+    <t>Bpboqulov nodir</t>
+  </si>
+  <si>
+    <t>998916988484</t>
+  </si>
+  <si>
+    <t>Safarov TEMURMALIK</t>
+  </si>
+  <si>
+    <t>992922003473</t>
+  </si>
+  <si>
+    <t>Yo'ldoshxonov To'raxon</t>
+  </si>
+  <si>
+    <t>998994702214</t>
+  </si>
+  <si>
+    <t>Roʻza Begimkulova</t>
+  </si>
+  <si>
+    <t>998994787511</t>
+  </si>
+  <si>
+    <t>Abdurashidov Órozali</t>
+  </si>
+  <si>
+    <t>998990591425</t>
+  </si>
+  <si>
+    <t>Rasul Utabov</t>
+  </si>
+  <si>
+    <t>998992454477</t>
+  </si>
+  <si>
+    <t>Sardorbek Toshimov</t>
+  </si>
+  <si>
+    <t>998886851221</t>
+  </si>
+  <si>
+    <t>Obidxon Karimov</t>
+  </si>
+  <si>
+    <t>998990208111</t>
+  </si>
+  <si>
+    <t>Rahmonov Omadbek</t>
+  </si>
+  <si>
+    <t>998946637372</t>
+  </si>
+  <si>
+    <t>Musoxon Muhibillayev</t>
+  </si>
+  <si>
+    <t>998333160061</t>
+  </si>
+  <si>
+    <t>Ochilov xudayberdi</t>
+  </si>
+  <si>
+    <t>998951005053</t>
+  </si>
+  <si>
+    <t>Баходир Қодиров</t>
+  </si>
+  <si>
+    <t>998934260200</t>
+  </si>
+  <si>
+    <t>Kurbanazarov Nuratdin</t>
+  </si>
+  <si>
+    <t>998907349445</t>
+  </si>
+  <si>
+    <t>Ollazarov Murodjon</t>
+  </si>
+  <si>
+    <t>998904300609</t>
+  </si>
+  <si>
+    <t>Muhammadkamol Yarashov</t>
+  </si>
+  <si>
+    <t>79777116626</t>
+  </si>
+  <si>
+    <t>MASHRABOV SHERZODBEK</t>
+  </si>
+  <si>
+    <t>79333249073</t>
+  </si>
+  <si>
+    <t>Shaxrizod Umirov</t>
+  </si>
+  <si>
+    <t>998936309003</t>
+  </si>
+  <si>
+    <t>Miraliev Mixtorjon</t>
+  </si>
+  <si>
+    <t>998999004076</t>
+  </si>
+  <si>
+    <t>998919412707</t>
+  </si>
+  <si>
+    <t>Hayotxoja Ergashev</t>
+  </si>
+  <si>
+    <t>998999995460</t>
+  </si>
+  <si>
+    <t>Aliyev Siroj Yodgor o'g'li</t>
+  </si>
+  <si>
+    <t>998979066699</t>
+  </si>
+  <si>
+    <t>dfg dfg</t>
   </si>
   <si>
     <t>+998950657313</t>
+  </si>
+  <si>
+    <t>Karimov Javohir</t>
+  </si>
+  <si>
+    <t>998338574848</t>
+  </si>
+  <si>
+    <t>Hakimov Javohir</t>
+  </si>
+  <si>
+    <t>998994134514</t>
+  </si>
+  <si>
+    <t>Kurbanov Abduvohid</t>
+  </si>
+  <si>
+    <t>998976165636</t>
+  </si>
+  <si>
+    <t>sdfsdf sdfsdf</t>
+  </si>
+  <si>
+    <t>+998972666255</t>
+  </si>
+  <si>
+    <t>Farxod Mamadaliyev</t>
+  </si>
+  <si>
+    <t>998934138108</t>
   </si>
 </sst>
 </file>
@@ -357,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,6 +1512,1542 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>294</v>
+      </c>
+      <c r="B151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>296</v>
+      </c>
+      <c r="B152" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>308</v>
+      </c>
+      <c r="B158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>310</v>
+      </c>
+      <c r="B159" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>312</v>
+      </c>
+      <c r="B160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>314</v>
+      </c>
+      <c r="B161" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>330</v>
+      </c>
+      <c r="B169" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>336</v>
+      </c>
+      <c r="B172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>371</v>
+      </c>
+      <c r="B190" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>373</v>
+      </c>
+      <c r="B191" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>377</v>
+      </c>
+      <c r="B193" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>379</v>
+      </c>
+      <c r="B194" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
